--- a/Report 129/PC Report 129 - License.xlsx
+++ b/Report 129/PC Report 129 - License.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/purple/web-scraper/Report 129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A716F-6FD6-EA43-BDB4-E08ADCA0B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EB91D-D0E1-CC4F-BB93-51F30B1549D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="2800" windowWidth="28040" windowHeight="17440" xr2:uid="{52ACC74C-8B56-F84A-BB63-99F59470A01E}"/>
+    <workbookView xWindow="100" yWindow="2800" windowWidth="31960" windowHeight="17440" xr2:uid="{52ACC74C-8B56-F84A-BB63-99F59470A01E}"/>
   </bookViews>
   <sheets>
     <sheet name="PROV" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>NAME</t>
   </si>
@@ -59,9 +59,6 @@
     <t>LICENSE_TYPE_DES</t>
   </si>
   <si>
-    <t>AMBULATORY SURGERY CENTER</t>
-  </si>
-  <si>
     <t>HOSPICE</t>
   </si>
   <si>
@@ -74,15 +71,6 @@
     <t>6554R</t>
   </si>
   <si>
-    <t>PANTHERS CENTER</t>
-  </si>
-  <si>
-    <t>DOLPHINS HOSPICE</t>
-  </si>
-  <si>
-    <t>JACKSON HOSPITAL</t>
-  </si>
-  <si>
     <t>READ CENTER</t>
   </si>
   <si>
@@ -93,6 +81,24 @@
   </si>
   <si>
     <t>STATE</t>
+  </si>
+  <si>
+    <t>MEMORIAL REGIONAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>SUNCOAST HOSPICE</t>
+  </si>
+  <si>
+    <t>SUNCOAST BEHAVIORAL HEALTH CENTER</t>
+  </si>
+  <si>
+    <t>ORIGINAL_ISSUE_DT</t>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>BIG BEND HOSPICE INC</t>
   </si>
 </sst>
 </file>
@@ -128,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,24 +474,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D0F568-FEE6-7446-92FA-CB3A51ECF63F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +515,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12344</v>
       </c>
@@ -515,45 +530,57 @@
         <v>200909099</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3245</v>
+        <v>4411</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>39838</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44586</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>200909100</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>98776</v>
+        <v>5032096</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42181</v>
+      </c>
+      <c r="I3" s="2">
+        <v>43642</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>65636</v>
       </c>
@@ -561,22 +588,28 @@
         <v>200909101</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>4356</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>754455</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="H4" s="2">
+        <v>43845</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45306</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>86678</v>
       </c>
@@ -584,19 +617,54 @@
         <v>200909102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>43533</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43858</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>87650</v>
+      </c>
+      <c r="B6" s="1">
+        <v>205091021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>566</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43858</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45319</v>
       </c>
     </row>
   </sheetData>
